--- a/discussion/Comparar_literatura_CPD1_A200.xlsx
+++ b/discussion/Comparar_literatura_CPD1_A200.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="60">
   <si>
     <t xml:space="preserve">Base</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t xml:space="preserve">impacto grande devido ao suporte, um erro, equivale a 25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As métricas passam de 98%</t>
   </si>
   <si>
     <t xml:space="preserve">Retirar o pior caso</t>
@@ -351,7 +354,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -365,6 +368,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -524,10 +531,10 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="H31 B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.68"/>
   </cols>
@@ -1931,10 +1938,10 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H31 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2135,10 +2142,10 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+      <selection pane="topLeft" activeCell="M10" activeCellId="1" sqref="H31 M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2961,82 +2968,82 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="5" t="n">
         <f aca="false">AVERAGE(C2:C20)</f>
         <v>0.983263157894737</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <f aca="false">AVERAGE(D2:D20)</f>
         <v>0.986105263157895</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <f aca="false">AVERAGE(E2:E20)</f>
         <v>0.983263157894737</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="5" t="n">
         <f aca="false">AVERAGE(F2:F20)</f>
         <v>0.984421052631579</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="5" t="n">
         <f aca="false">AVERAGE(I2:I20)</f>
         <v>0.961947368421053</v>
       </c>
-      <c r="J21" s="4" t="n">
+      <c r="J21" s="5" t="n">
         <f aca="false">AVERAGE(J2:J20)</f>
         <v>0.961263157894737</v>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <f aca="false">AVERAGE(K2:K20)</f>
         <v>0.961947368421053</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <f aca="false">AVERAGE(L2:L20)</f>
         <v>0.955684210526316</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="6" t="n">
         <f aca="false">STDEV(C2:C20)</f>
         <v>0.0172364023871417</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="6" t="n">
         <f aca="false">STDEV(D2:D20)</f>
         <v>0.0198687211936588</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="6" t="n">
         <f aca="false">STDEV(E2:E20)</f>
         <v>0.0172364023871417</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <f aca="false">STDEV(F2:F20)</f>
         <v>0.0162696574759878</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="6" t="n">
         <f aca="false">STDEV(I2:I20)</f>
         <v>0.102890704517091</v>
       </c>
-      <c r="J22" s="5" t="n">
+      <c r="J22" s="6" t="n">
         <f aca="false">STDEV(J2:J20)</f>
         <v>0.0832498529229686</v>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="6" t="n">
         <f aca="false">STDEV(K2:K20)</f>
         <v>0.102890704517091</v>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="L22" s="6" t="n">
         <f aca="false">STDEV(L2:L20)</f>
         <v>0.0772593414931373</v>
       </c>
@@ -3060,10 +3067,10 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="H31 I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -3927,56 +3934,56 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="5" t="n">
         <f aca="false">AVERAGE(C3:C21)</f>
         <v>0.98478947368421</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <f aca="false">AVERAGE(D3:D21)</f>
         <v>0.986105263157895</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <f aca="false">AVERAGE(E3:E21)</f>
         <v>0.98478947368421</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="5" t="n">
         <f aca="false">AVERAGE(F3:F21)</f>
         <v>0.98521052631579</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="6" t="n">
         <f aca="false">STDEV(C3:C21)</f>
         <v>0.0173736036924744</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="6" t="n">
         <f aca="false">STDEV(D3:D21)</f>
         <v>0.0198687211936588</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="6" t="n">
         <f aca="false">STDEV(E3:E21)</f>
         <v>0.0173736036924744</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="6" t="n">
         <f aca="false">STDEV(F3:F21)</f>
         <v>0.0166585945364495</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3996,14 +4003,14 @@
   </sheetPr>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="12.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,7 +4088,7 @@
       <c r="F2" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="n">
@@ -4096,25 +4103,25 @@
       <c r="L2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="7" t="n">
         <v>0.966</v>
       </c>
       <c r="Q2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="7" t="n">
         <v>0.966</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="7" t="n">
         <v>0.983</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="7" t="n">
         <v>29</v>
       </c>
     </row>
@@ -4137,7 +4144,7 @@
       <c r="F3" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="P3" s="3" t="n">
@@ -4152,7 +4159,7 @@
       <c r="S3" s="3" t="n">
         <v>0.991</v>
       </c>
-      <c r="T3" s="6" t="n">
+      <c r="T3" s="7" t="n">
         <v>287</v>
       </c>
     </row>
@@ -4175,7 +4182,7 @@
       <c r="F4" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="3" t="n">
@@ -4190,17 +4197,17 @@
       <c r="L4" s="3" t="n">
         <v>0.99</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="7" t="n">
         <v>218</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6" t="n">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4223,7 +4230,7 @@
       <c r="F5" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="3" t="n">
@@ -4238,7 +4245,7 @@
       <c r="L5" s="3" t="n">
         <v>0.939</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>96</v>
       </c>
     </row>
@@ -4261,7 +4268,7 @@
       <c r="F6" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="3" t="n">
@@ -4276,17 +4283,17 @@
       <c r="L6" s="3" t="n">
         <v>0.977</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6" t="n">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4309,7 +4316,7 @@
       <c r="F7" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="3" t="n">
@@ -4324,10 +4331,10 @@
       <c r="L7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P7" s="3" t="n">
@@ -4342,7 +4349,7 @@
       <c r="S7" s="3" t="n">
         <v>0.992</v>
       </c>
-      <c r="T7" s="6" t="n">
+      <c r="T7" s="7" t="n">
         <v>179</v>
       </c>
     </row>
@@ -4365,40 +4372,40 @@
       <c r="F8" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7" t="n">
+      <c r="I8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="n">
         <v>0.818</v>
       </c>
-      <c r="K8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7" t="n">
+      <c r="K8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8" t="n">
         <v>0.9</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="M8" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="10" t="n">
+      <c r="P8" s="11" t="n">
         <v>0.979</v>
       </c>
-      <c r="Q8" s="10" t="n">
+      <c r="Q8" s="11" t="n">
         <v>0.994</v>
       </c>
-      <c r="R8" s="10" t="n">
+      <c r="R8" s="11" t="n">
         <v>0.979</v>
       </c>
-      <c r="S8" s="10" t="n">
+      <c r="S8" s="11" t="n">
         <v>0.986</v>
       </c>
-      <c r="T8" s="9" t="n">
+      <c r="T8" s="10" t="n">
         <v>331</v>
       </c>
     </row>
@@ -4421,25 +4428,25 @@
       <c r="F9" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="7" t="n">
         <v>0.971</v>
       </c>
       <c r="K9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="7" t="n">
         <v>0.985</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <v>67</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="3" t="n">
@@ -4454,7 +4461,7 @@
       <c r="S9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="7" t="n">
         <v>16</v>
       </c>
     </row>
@@ -4477,25 +4484,25 @@
       <c r="F10" s="1" t="n">
         <v>786</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7" t="n">
+      <c r="I10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8" t="n">
         <v>0.667</v>
       </c>
-      <c r="K10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7" t="n">
+      <c r="K10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="M10" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P10" s="3" t="n">
@@ -4510,7 +4517,7 @@
       <c r="S10" s="3" t="n">
         <v>0.998</v>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="T10" s="7" t="n">
         <v>784</v>
       </c>
     </row>
@@ -4533,7 +4540,7 @@
       <c r="F11" s="1" t="n">
         <v>790</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="3" t="n">
@@ -4548,25 +4555,25 @@
       <c r="L11" s="3" t="n">
         <v>0.993</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="7" t="n">
         <v>767</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="6" t="n">
+      <c r="P11" s="7" t="n">
         <v>0.957</v>
       </c>
       <c r="Q11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="6" t="n">
+      <c r="R11" s="7" t="n">
         <v>0.957</v>
       </c>
-      <c r="S11" s="6" t="n">
+      <c r="S11" s="7" t="n">
         <v>0.978</v>
       </c>
-      <c r="T11" s="6" t="n">
+      <c r="T11" s="7" t="n">
         <v>23</v>
       </c>
     </row>
@@ -4589,31 +4596,31 @@
       <c r="F12" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="7" t="n">
         <v>0.944</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>0.99</v>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="K12" s="7" t="n">
         <v>0.944</v>
       </c>
-      <c r="L12" s="6" t="n">
+      <c r="L12" s="7" t="n">
         <v>0.966</v>
       </c>
-      <c r="M12" s="6" t="n">
+      <c r="M12" s="7" t="n">
         <v>108</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" s="6" t="n">
+      <c r="Q12" s="7" t="n">
         <v>0.984</v>
       </c>
       <c r="R12" s="3" t="n">
@@ -4622,7 +4629,7 @@
       <c r="S12" s="3" t="n">
         <v>0.992</v>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="T12" s="7" t="n">
         <v>63</v>
       </c>
     </row>
@@ -4645,7 +4652,7 @@
       <c r="F13" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="3" t="n">
@@ -4660,10 +4667,10 @@
       <c r="L13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P13" s="3" t="n">
@@ -4678,7 +4685,7 @@
       <c r="S13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="T13" s="7" t="n">
         <v>125</v>
       </c>
     </row>
@@ -4701,7 +4708,7 @@
       <c r="F14" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="3" t="n">
@@ -4716,10 +4723,10 @@
       <c r="L14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="7" t="n">
         <v>33</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="P14" s="3" t="n">
@@ -4734,7 +4741,7 @@
       <c r="S14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="T14" s="7" t="n">
         <v>29</v>
       </c>
     </row>
@@ -4757,25 +4764,25 @@
       <c r="F15" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="7" t="n">
         <v>0.981</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="7" t="n">
         <v>0.981</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="7" t="n">
         <v>0.99</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="7" t="n">
         <v>104</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P15" s="3" t="n">
@@ -4790,7 +4797,7 @@
       <c r="S15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="T15" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,25 +4820,25 @@
       <c r="F16" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="7" t="n">
         <v>0.95</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>0.974</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="7" t="n">
         <v>0.95</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="7" t="n">
         <v>0.962</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P16" s="3" t="n">
@@ -4846,7 +4853,7 @@
       <c r="S16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="7" t="n">
         <v>74</v>
       </c>
     </row>
@@ -4869,31 +4876,31 @@
       <c r="F17" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="7" t="n">
         <v>0.969</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>0.979</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="7" t="n">
         <v>0.969</v>
       </c>
       <c r="L17" s="3" t="n">
         <v>0.974</v>
       </c>
-      <c r="M17" s="6" t="n">
+      <c r="M17" s="7" t="n">
         <v>196</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>0.968</v>
       </c>
-      <c r="Q17" s="6" t="n">
+      <c r="Q17" s="7" t="n">
         <v>0.968</v>
       </c>
       <c r="R17" s="3" t="n">
@@ -4902,7 +4909,7 @@
       <c r="S17" s="3" t="n">
         <v>0.968</v>
       </c>
-      <c r="T17" s="6" t="n">
+      <c r="T17" s="7" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4925,25 +4932,25 @@
       <c r="F18" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="6" t="n">
+      <c r="J18" s="7" t="n">
         <v>0.984</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="7" t="n">
         <v>0.992</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="7" t="n">
         <v>62</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P18" s="3" t="n">
@@ -4958,7 +4965,7 @@
       <c r="S18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T18" s="6" t="n">
+      <c r="T18" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,7 +4988,7 @@
       <c r="F19" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="3" t="n">
@@ -4996,25 +5003,25 @@
       <c r="L19" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M19" s="6" t="n">
+      <c r="M19" s="7" t="n">
         <v>109</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="6" t="n">
+      <c r="P19" s="7" t="n">
         <v>0.988</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="6" t="n">
+      <c r="R19" s="7" t="n">
         <v>0.988</v>
       </c>
       <c r="S19" s="3" t="n">
         <v>0.994</v>
       </c>
-      <c r="T19" s="6" t="n">
+      <c r="T19" s="7" t="n">
         <v>84</v>
       </c>
     </row>
@@ -5037,188 +5044,188 @@
       <c r="F20" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="7" t="n">
         <v>0.984</v>
       </c>
       <c r="J20" s="3" t="n">
         <v>0.984</v>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20" s="7" t="n">
         <v>0.984</v>
       </c>
       <c r="L20" s="3" t="n">
         <v>0.984</v>
       </c>
-      <c r="M20" s="6" t="n">
+      <c r="M20" s="7" t="n">
         <v>248</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6" t="n">
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="12" t="n">
+      <c r="B21" s="13" t="n">
         <f aca="false">AVERAGE(B2:B20)</f>
         <v>0.983263157894737</v>
       </c>
-      <c r="C21" s="12" t="n">
+      <c r="C21" s="13" t="n">
         <f aca="false">AVERAGE(C2:C20)</f>
         <v>0.986105263157895</v>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="13" t="n">
         <f aca="false">AVERAGE(D2:D20)</f>
         <v>0.983263157894737</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="13" t="n">
         <f aca="false">AVERAGE(E2:E20)</f>
         <v>0.984421052631579</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="14" t="n">
+      <c r="I21" s="15" t="n">
         <f aca="false">AVERAGE(I2:I20)</f>
         <v>0.985111111111111</v>
       </c>
-      <c r="J21" s="14" t="n">
+      <c r="J21" s="15" t="n">
         <f aca="false">AVERAGE(J2:J20)</f>
         <v>0.959111111111111</v>
       </c>
-      <c r="K21" s="14" t="n">
+      <c r="K21" s="15" t="n">
         <f aca="false">AVERAGE(K2:K20)</f>
         <v>0.985111111111111</v>
       </c>
-      <c r="L21" s="14" t="n">
+      <c r="L21" s="15" t="n">
         <f aca="false">AVERAGE(L2:L20)</f>
         <v>0.969555555555555</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="O21" s="6" t="s">
+      <c r="M21" s="16"/>
+      <c r="O21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="6" t="n">
+      <c r="Q21" s="7" t="n">
         <v>0.955</v>
       </c>
       <c r="R21" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="S21" s="6" t="n">
+      <c r="S21" s="7" t="n">
         <v>0.977</v>
       </c>
-      <c r="T21" s="6" t="n">
+      <c r="T21" s="7" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="6" t="n">
         <f aca="false">STDEV(B2:B20)</f>
         <v>0.0172364023871417</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="6" t="n">
         <f aca="false">STDEV(C2:C20)</f>
         <v>0.0198687211936588</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="6" t="n">
         <f aca="false">STDEV(D2:D20)</f>
         <v>0.0172364023871417</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="6" t="n">
         <f aca="false">STDEV(E2:E20)</f>
         <v>0.0162696574759878</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="H22" s="16" t="s">
+      <c r="F22" s="6"/>
+      <c r="H22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="16" t="n">
+      <c r="I22" s="17" t="n">
         <f aca="false">STDEV(I2:I20)</f>
         <v>0.0203697841072301</v>
       </c>
-      <c r="J22" s="16" t="n">
+      <c r="J22" s="17" t="n">
         <f aca="false">STDEV(J2:J20)</f>
         <v>0.0851178345097782</v>
       </c>
-      <c r="K22" s="16" t="n">
+      <c r="K22" s="17" t="n">
         <f aca="false">STDEV(K2:K20)</f>
         <v>0.0203697841072301</v>
       </c>
-      <c r="L22" s="16" t="n">
+      <c r="L22" s="17" t="n">
         <f aca="false">STDEV(L2:L20)</f>
         <v>0.0494894192164253</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="O22" s="13" t="s">
+      <c r="M22" s="16"/>
+      <c r="O22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P22" s="14" t="n">
+      <c r="P22" s="15" t="n">
         <f aca="false">AVERAGE(P3:P21)</f>
         <v>0.992333333333333</v>
       </c>
-      <c r="Q22" s="14" t="n">
+      <c r="Q22" s="15" t="n">
         <f aca="false">AVERAGE(Q3:Q21)</f>
         <v>0.991466666666667</v>
       </c>
-      <c r="R22" s="14" t="n">
+      <c r="R22" s="15" t="n">
         <f aca="false">AVERAGE(R3:R21)</f>
         <v>0.992333333333333</v>
       </c>
-      <c r="S22" s="14" t="n">
+      <c r="S22" s="15" t="n">
         <f aca="false">AVERAGE(S3:S21)</f>
         <v>0.991733333333333</v>
       </c>
-      <c r="T22" s="15"/>
+      <c r="T22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="16" t="n">
+      <c r="P23" s="17" t="n">
         <f aca="false">STDEV(P3:P21)</f>
         <v>0.0136939333109158</v>
       </c>
-      <c r="Q23" s="16" t="n">
+      <c r="Q23" s="17" t="n">
         <f aca="false">STDEV(Q3:Q21)</f>
         <v>0.0136636465884931</v>
       </c>
-      <c r="R23" s="16" t="n">
+      <c r="R23" s="17" t="n">
         <f aca="false">STDEV(R3:R21)</f>
         <v>0.0136939333109158</v>
       </c>
-      <c r="S23" s="16" t="n">
+      <c r="S23" s="17" t="n">
         <f aca="false">STDEV(S3:S21)</f>
         <v>0.0102013071057912</v>
       </c>
-      <c r="T23" s="15"/>
+      <c r="T23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -5230,15 +5237,15 @@
       <c r="L26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="18" t="s">
+      <c r="O26" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -5247,92 +5254,97 @@
       <c r="K27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="18" t="s">
+      <c r="O27" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="4" t="s">
         <v>54</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O28" s="18" t="s">
+      <c r="O28" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="20" t="n">
+      <c r="I30" s="21" t="n">
         <v>0.545</v>
       </c>
-      <c r="J30" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="20" t="n">
+      <c r="J30" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="21" t="n">
         <v>0.545</v>
       </c>
-      <c r="L30" s="20" t="n">
+      <c r="L30" s="21" t="n">
         <v>0.706</v>
       </c>
-      <c r="M30" s="20" t="n">
+      <c r="M30" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="O30" s="22" t="s">
+      <c r="O30" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="0" t="s">
+      <c r="P30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="Q30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R30" s="0" t="s">
+      <c r="R30" s="4" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O32" s="0" t="s">
-        <v>56</v>
+      <c r="O32" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O33" s="9" t="s">
+      <c r="O33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="9" t="n">
+      <c r="P33" s="10" t="n">
         <v>0.75</v>
       </c>
-      <c r="Q33" s="9" t="n">
+      <c r="Q33" s="10" t="n">
         <v>0.75</v>
       </c>
-      <c r="R33" s="9" t="n">
+      <c r="R33" s="10" t="n">
         <v>0.75</v>
       </c>
-      <c r="S33" s="9" t="n">
+      <c r="S33" s="10" t="n">
         <v>0.75</v>
       </c>
-      <c r="T33" s="9" t="n">
+      <c r="T33" s="10" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O34" s="0" t="s">
-        <v>57</v>
+      <c r="O34" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O36" s="6" t="s">
+      <c r="O36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P36" s="0" t="s">
-        <v>58</v>
+      <c r="P36" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
